--- a/biology/Histoire de la zoologie et de la botanique/James_Anderson_(1738-1809)/James_Anderson_(1738-1809).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Anderson_(1738-1809)/James_Anderson_(1738-1809).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Anderson est un médecin et un botaniste britannique, né le 17 janvier 1738 et mort le 6 août 1809 à Madras[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Anderson est un médecin et un botaniste britannique, né le 17 janvier 1738 et mort le 6 août 1809 à Madras.
 Il est chirurgien auprès de la Compagnie anglaise des Indes orientales à partir de 1762 et médecin général en 1786. Il conduit des expériences de cultures dans le sud de l’Inde. Il fait paraître Varnish and Tallow-trees en 1791 et Culture of Bastard Cedar Trees on Coast of Coromandel en 1794. Il est membre de la Royal Society of Edinburgh. William Roxburgh (1751-1815) lui dédie le genre Andersonia.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists including Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis et The Natural History Museum (Londres).  (ISBN 0-85066-843-3)</t>
         </is>
